--- a/reports_pdf/brasil/risk-pt/Cases/06-08-2020_brasil_report.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/06-08-2020_brasil_report.xlsx
@@ -559,28 +559,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>183690</v>
+        <v>183691</v>
       </c>
       <c r="D6" t="n">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="E6" t="n">
-        <v>1.060990338164251</v>
+        <v>1.061076604554865</v>
       </c>
       <c r="F6" t="n">
-        <v>1.040759356053823</v>
+        <v>1.040771679823911</v>
       </c>
       <c r="G6" t="n">
-        <v>45332</v>
+        <v>45333</v>
       </c>
       <c r="H6" t="n">
-        <v>298.158379373849</v>
+        <v>298.1649565903709</v>
       </c>
       <c r="I6" t="n">
-        <v>47179.70312863191</v>
+        <v>47181.30256145736</v>
       </c>
       <c r="J6" t="n">
-        <v>310.3111229191785</v>
+        <v>310.3216427351839</v>
       </c>
     </row>
     <row r="7">
@@ -695,28 +695,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>81564</v>
+        <v>81764</v>
       </c>
       <c r="D10" t="n">
-        <v>3161</v>
+        <v>3361</v>
       </c>
       <c r="E10" t="n">
-        <v>2.030879712746858</v>
+        <v>2.066786355475763</v>
       </c>
       <c r="F10" t="n">
-        <v>1.022504469780265</v>
+        <v>1.027633990170108</v>
       </c>
       <c r="G10" t="n">
-        <v>30141</v>
+        <v>30341</v>
       </c>
       <c r="H10" t="n">
-        <v>455.9219482680381</v>
+        <v>458.9472091967932</v>
       </c>
       <c r="I10" t="n">
-        <v>30819.30722364696</v>
+        <v>31179.44289575126</v>
       </c>
       <c r="J10" t="n">
-        <v>466.1822299749957</v>
+        <v>471.6297518643361</v>
       </c>
     </row>
     <row r="11">
@@ -1001,28 +1001,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>57100</v>
+        <v>58390</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9506261180679786</v>
+        <v>1.41216457960644</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9654790523871923</v>
+        <v>1.031413118321258</v>
       </c>
       <c r="G19" t="n">
-        <v>12751</v>
+        <v>14041</v>
       </c>
       <c r="H19" t="n">
-        <v>397.9712858926342</v>
+        <v>438.2334581772784</v>
       </c>
       <c r="I19" t="n">
-        <v>12310.82339698909</v>
+        <v>14482.07159434879</v>
       </c>
       <c r="J19" t="n">
-        <v>384.2329399809329</v>
+        <v>451.9997376513355</v>
       </c>
     </row>
     <row r="20">
@@ -1069,28 +1069,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>54106</v>
+        <v>54268</v>
       </c>
       <c r="D21" t="n">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6351102941176471</v>
+        <v>0.7095588235294118</v>
       </c>
       <c r="F21" t="n">
-        <v>1.247277356119059</v>
+        <v>1.293199600715221</v>
       </c>
       <c r="G21" t="n">
-        <v>7292</v>
+        <v>7454</v>
       </c>
       <c r="H21" t="n">
-        <v>211.8535735037769</v>
+        <v>216.5601394538059</v>
       </c>
       <c r="I21" t="n">
-        <v>9095.146480820178</v>
+        <v>9639.50982373126</v>
       </c>
       <c r="J21" t="n">
-        <v>264.2401650441656</v>
+        <v>280.0554858724945</v>
       </c>
     </row>
     <row r="22">
@@ -1171,28 +1171,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34929</v>
+        <v>35540</v>
       </c>
       <c r="D24" t="n">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="E24" t="n">
-        <v>1.022995283018868</v>
+        <v>1.383254716981132</v>
       </c>
       <c r="F24" t="n">
-        <v>1.023586945584084</v>
+        <v>1.127414230095031</v>
       </c>
       <c r="G24" t="n">
-        <v>6055</v>
+        <v>6666</v>
       </c>
       <c r="H24" t="n">
-        <v>1196.640316205534</v>
+        <v>1317.391304347826</v>
       </c>
       <c r="I24" t="n">
-        <v>6197.818955511631</v>
+        <v>7515.343257813473</v>
       </c>
       <c r="J24" t="n">
-        <v>1224.865406227595</v>
+        <v>1485.245703125192</v>
       </c>
     </row>
     <row r="25">
@@ -1310,13 +1310,13 @@
         <v>29539</v>
       </c>
       <c r="D28" t="n">
-        <v>1227</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0.8696660482374768</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9743199858317768</v>
+        <v>1.07015689905524</v>
       </c>
       <c r="G28" t="n">
         <v>9574</v>
@@ -1325,10 +1325,10 @@
         <v>631.9471947194719</v>
       </c>
       <c r="I28" t="n">
-        <v>9328.139544353431</v>
+        <v>10245.68215155487</v>
       </c>
       <c r="J28" t="n">
-        <v>615.718781805507</v>
+        <v>676.282650267648</v>
       </c>
     </row>
     <row r="29">
@@ -1341,28 +1341,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2917183</v>
+        <v>2919447</v>
       </c>
       <c r="D29" t="n">
-        <v>51046</v>
+        <v>50831</v>
       </c>
       <c r="E29" t="n">
-        <v>1.053375637838545</v>
+        <v>1.068186575951851</v>
       </c>
       <c r="F29" t="n">
-        <v>1.00862810692964</v>
+        <v>1.012867483045987</v>
       </c>
       <c r="G29" t="n">
-        <v>622628</v>
+        <v>624892</v>
       </c>
       <c r="H29" t="n">
-        <v>304.539518412905</v>
+        <v>305.6468850422355</v>
       </c>
       <c r="I29" t="n">
-        <v>628000.1009613881</v>
+        <v>632932.7872155728</v>
       </c>
       <c r="J29" t="n">
-        <v>307.1671179420727</v>
+        <v>309.5797911535751</v>
       </c>
     </row>
   </sheetData>
